--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111891126</v>
+        <v>111896600</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,55 +817,49 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575125.6693508058</v>
+        <v>575119.1479754841</v>
       </c>
       <c r="R3" t="n">
-        <v>6702845.585682714</v>
+        <v>6702802.515895648</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -894,7 +888,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -904,7 +898,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -919,22 +913,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896694</v>
+        <v>111896672</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>90187</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -943,25 +937,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>2014</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -971,10 +965,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575097.6139059839</v>
+        <v>575102.4524061662</v>
       </c>
       <c r="R4" t="n">
-        <v>6702959.000007093</v>
+        <v>6702964.035148131</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1025,6 +1019,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1043,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111890621</v>
+        <v>111896592</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,42 +1050,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575120.7488751278</v>
+        <v>575109.7436304765</v>
       </c>
       <c r="R5" t="n">
-        <v>6702844.496635719</v>
+        <v>6702755.437760966</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1119,7 +1113,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1129,7 +1123,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1144,22 +1138,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896605</v>
+        <v>111890621</v>
       </c>
       <c r="B6" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1168,41 +1162,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575083.5515026724</v>
+        <v>575120.7488751278</v>
       </c>
       <c r="R6" t="n">
-        <v>6702945.877912494</v>
+        <v>6702844.496635719</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1231,7 +1226,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1241,7 +1236,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1256,12 +1251,12 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -1388,10 +1383,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896600</v>
+        <v>111896605</v>
       </c>
       <c r="B8" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,46 +1395,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575119.1479754841</v>
+        <v>575083.5515026724</v>
       </c>
       <c r="R8" t="n">
-        <v>6702802.515895648</v>
+        <v>6702945.877912494</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1508,10 +1495,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896592</v>
+        <v>111896693</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>90018</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1520,25 +1507,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>1339</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1548,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575109.7436304765</v>
+        <v>575100.1771260161</v>
       </c>
       <c r="R9" t="n">
-        <v>6702755.437760966</v>
+        <v>6702883.056141537</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1620,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896606</v>
+        <v>111896596</v>
       </c>
       <c r="B10" t="n">
-        <v>90332</v>
+        <v>4711</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1636,21 +1623,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4769</v>
+        <v>100299</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1660,10 +1647,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575078.5902533898</v>
+        <v>575089.6042638847</v>
       </c>
       <c r="R10" t="n">
-        <v>6702946.762035946</v>
+        <v>6702796.968279703</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1732,10 +1719,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111892438</v>
+        <v>111896692</v>
       </c>
       <c r="B11" t="n">
-        <v>55395</v>
+        <v>5113</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1748,38 +1735,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>208257</v>
+        <v>100526</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575076.7844513921</v>
+        <v>575090.343795793</v>
       </c>
       <c r="R11" t="n">
-        <v>6702914.648038276</v>
+        <v>6702785.139498818</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1808,7 +1794,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1818,7 +1804,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1833,22 +1819,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896693</v>
+        <v>111896674</v>
       </c>
       <c r="B12" t="n">
-        <v>90018</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,25 +1843,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575100.1771260161</v>
+        <v>575252.6125616841</v>
       </c>
       <c r="R12" t="n">
-        <v>6702883.056141537</v>
+        <v>6702873.88263269</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1957,10 +1943,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896663</v>
+        <v>111896606</v>
       </c>
       <c r="B13" t="n">
-        <v>90658</v>
+        <v>90332</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1969,25 +1955,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>4769</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1997,10 +1983,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575023.2051342586</v>
+        <v>575078.5902533898</v>
       </c>
       <c r="R13" t="n">
-        <v>6702900.213655051</v>
+        <v>6702946.762035946</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2069,10 +2055,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896672</v>
+        <v>111891126</v>
       </c>
       <c r="B14" t="n">
-        <v>90187</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2081,41 +2067,55 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2014</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575102.4524061662</v>
+        <v>575125.6693508058</v>
       </c>
       <c r="R14" t="n">
-        <v>6702964.035148131</v>
+        <v>6702845.585682714</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2163,29 +2163,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896591</v>
+        <v>111896694</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2194,25 +2193,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2222,10 +2221,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575103.6640899593</v>
+        <v>575097.6139059839</v>
       </c>
       <c r="R15" t="n">
-        <v>6702786.402673531</v>
+        <v>6702959.000007093</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2294,10 +2293,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896692</v>
+        <v>111896591</v>
       </c>
       <c r="B16" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2306,25 +2305,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2334,10 +2333,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575090.343795793</v>
+        <v>575103.6640899593</v>
       </c>
       <c r="R16" t="n">
-        <v>6702785.139498818</v>
+        <v>6702786.402673531</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2406,10 +2405,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111891400</v>
+        <v>111896663</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>90658</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2418,55 +2417,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575106.7474690104</v>
+        <v>575023.2051342586</v>
       </c>
       <c r="R17" t="n">
-        <v>6702828.414323498</v>
+        <v>6702900.213655051</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2495,7 +2480,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2505,7 +2490,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2520,22 +2505,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896674</v>
+        <v>111892438</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>55395</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2544,41 +2529,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>208257</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575252.6125616841</v>
+        <v>575076.7844513921</v>
       </c>
       <c r="R18" t="n">
-        <v>6702873.88263269</v>
+        <v>6702914.648038276</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2607,7 +2593,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2617,7 +2603,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2632,22 +2618,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896596</v>
+        <v>111891400</v>
       </c>
       <c r="B19" t="n">
-        <v>4711</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2656,41 +2642,55 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100299</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575089.6042638847</v>
+        <v>575106.7474690104</v>
       </c>
       <c r="R19" t="n">
-        <v>6702796.968279703</v>
+        <v>6702828.414323498</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2744,362 +2744,15 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>111890696</v>
-      </c>
-      <c r="B20" t="n">
-        <v>96348</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VU</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>220787</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Goodyera repens</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>575147.8131198394</v>
-      </c>
-      <c r="R20" t="n">
-        <v>6702778.928742766</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Gävleborg</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>Hofors</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Gästrikland</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Torsåker</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>14:20</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>14:20</t>
-        </is>
-      </c>
-      <c r="AD20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AX20" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>111890113</v>
-      </c>
-      <c r="B21" t="n">
-        <v>89369</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>5447</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Vedticka</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Fuscoporia viticola</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>575180.6699579475</v>
-      </c>
-      <c r="R21" t="n">
-        <v>6702863.012252055</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Gävleborg</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>Hofors</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Gästrikland</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Torsåker</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>13:58</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>13:58</t>
-        </is>
-      </c>
-      <c r="AD21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AW21" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AX21" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>111891613</v>
-      </c>
-      <c r="B22" t="n">
-        <v>98535</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>222498</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Hepatica nobilis</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>575147.8131198394</v>
-      </c>
-      <c r="R22" t="n">
-        <v>6702778.928742766</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Gävleborg</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>Hofors</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Gästrikland</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Torsåker</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>14:20</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>14:20</t>
-        </is>
-      </c>
-      <c r="AD22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AX22" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896673</v>
+        <v>111896672</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>90187</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,50 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>2014</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>(Scop.:Fr.) Pers.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575152.3038162624</v>
+        <v>575102.4524061662</v>
       </c>
       <c r="R2" t="n">
-        <v>6702800.736142034</v>
+        <v>6702964.035148131</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -805,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896600</v>
+        <v>111891126</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,49 +805,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575119.1479754841</v>
+        <v>575125.6693508058</v>
       </c>
       <c r="R3" t="n">
-        <v>6702802.515895648</v>
+        <v>6702845.585682714</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -888,7 +882,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -898,7 +892,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,22 +907,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896672</v>
+        <v>111896663</v>
       </c>
       <c r="B4" t="n">
-        <v>90187</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -941,21 +935,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2014</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -965,10 +959,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575102.4524061662</v>
+        <v>575023.2051342586</v>
       </c>
       <c r="R4" t="n">
-        <v>6702964.035148131</v>
+        <v>6702900.213655051</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1019,7 +1013,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1038,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896592</v>
+        <v>111891400</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,41 +1043,55 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575109.7436304765</v>
+        <v>575106.7474690104</v>
       </c>
       <c r="R5" t="n">
-        <v>6702755.437760966</v>
+        <v>6702828.414323498</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1113,7 +1120,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1123,7 +1130,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,22 +1145,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111890621</v>
+        <v>111896599</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,42 +1169,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575120.7488751278</v>
+        <v>575065.0695521727</v>
       </c>
       <c r="R6" t="n">
-        <v>6702844.496635719</v>
+        <v>6702907.496396012</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1226,7 +1240,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1236,7 +1250,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1251,22 +1265,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896599</v>
+        <v>111896673</v>
       </c>
       <c r="B7" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,35 +1289,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1311,10 +1329,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575065.0695521727</v>
+        <v>575152.3038162624</v>
       </c>
       <c r="R7" t="n">
-        <v>6702907.496396012</v>
+        <v>6702800.736142034</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1365,6 +1383,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1383,10 +1402,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896605</v>
+        <v>111896692</v>
       </c>
       <c r="B8" t="n">
-        <v>90332</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1399,21 +1418,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1423,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575083.5515026724</v>
+        <v>575090.343795793</v>
       </c>
       <c r="R8" t="n">
-        <v>6702945.877912494</v>
+        <v>6702785.139498818</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1495,10 +1514,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896693</v>
+        <v>111896694</v>
       </c>
       <c r="B9" t="n">
-        <v>90018</v>
+        <v>98535</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1511,21 +1530,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1339</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1535,10 +1554,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575100.1771260161</v>
+        <v>575097.6139059839</v>
       </c>
       <c r="R9" t="n">
-        <v>6702883.056141537</v>
+        <v>6702959.000007093</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1607,10 +1626,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896596</v>
+        <v>111896592</v>
       </c>
       <c r="B10" t="n">
-        <v>4711</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,25 +1638,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100299</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1647,10 +1666,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575089.6042638847</v>
+        <v>575109.7436304765</v>
       </c>
       <c r="R10" t="n">
-        <v>6702796.968279703</v>
+        <v>6702755.437760966</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1719,10 +1738,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896692</v>
+        <v>111896600</v>
       </c>
       <c r="B11" t="n">
-        <v>5113</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1731,38 +1750,46 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575090.343795793</v>
+        <v>575119.1479754841</v>
       </c>
       <c r="R11" t="n">
-        <v>6702785.139498818</v>
+        <v>6702802.515895648</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1831,10 +1858,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896674</v>
+        <v>111896596</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>4711</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1843,25 +1870,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>100299</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1898,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575252.6125616841</v>
+        <v>575089.6042638847</v>
       </c>
       <c r="R12" t="n">
-        <v>6702873.88263269</v>
+        <v>6702796.968279703</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1943,10 +1970,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896606</v>
+        <v>111896693</v>
       </c>
       <c r="B13" t="n">
-        <v>90332</v>
+        <v>90018</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1959,21 +1986,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4769</v>
+        <v>1339</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1983,10 +2010,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575078.5902533898</v>
+        <v>575100.1771260161</v>
       </c>
       <c r="R13" t="n">
-        <v>6702946.762035946</v>
+        <v>6702883.056141537</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2055,10 +2082,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111891126</v>
+        <v>111896605</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2067,55 +2094,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575125.6693508058</v>
+        <v>575083.5515026724</v>
       </c>
       <c r="R14" t="n">
-        <v>6702845.585682714</v>
+        <v>6702945.877912494</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2144,7 +2157,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2154,7 +2167,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2169,22 +2182,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896694</v>
+        <v>111890621</v>
       </c>
       <c r="B15" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2193,41 +2206,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575097.6139059839</v>
+        <v>575120.7488751278</v>
       </c>
       <c r="R15" t="n">
-        <v>6702959.000007093</v>
+        <v>6702844.496635719</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2256,7 +2270,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2266,7 +2280,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2281,22 +2295,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896591</v>
+        <v>111896674</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2305,25 +2319,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2333,10 +2347,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575103.6640899593</v>
+        <v>575252.6125616841</v>
       </c>
       <c r="R16" t="n">
-        <v>6702786.402673531</v>
+        <v>6702873.88263269</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2405,10 +2419,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896663</v>
+        <v>111892438</v>
       </c>
       <c r="B17" t="n">
-        <v>90658</v>
+        <v>55395</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2417,41 +2431,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4361</v>
+        <v>208257</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575023.2051342586</v>
+        <v>575076.7844513921</v>
       </c>
       <c r="R17" t="n">
-        <v>6702900.213655051</v>
+        <v>6702914.648038276</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2480,7 +2495,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2490,7 +2505,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2505,22 +2520,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111892438</v>
+        <v>111896591</v>
       </c>
       <c r="B18" t="n">
-        <v>55395</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2529,42 +2544,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>208257</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575076.7844513921</v>
+        <v>575103.6640899593</v>
       </c>
       <c r="R18" t="n">
-        <v>6702914.648038276</v>
+        <v>6702786.402673531</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2593,7 +2607,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2603,7 +2617,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2618,22 +2632,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111891400</v>
+        <v>111896606</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2642,55 +2656,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575106.7474690104</v>
+        <v>575078.5902533898</v>
       </c>
       <c r="R19" t="n">
-        <v>6702828.414323498</v>
+        <v>6702946.762035946</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2744,15 +2744,362 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111890696</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>575147.8131198394</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6702778.928742766</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111891613</v>
+      </c>
+      <c r="B21" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>575147.8131198394</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6702778.928742766</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111890113</v>
+      </c>
+      <c r="B22" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>575180.6699579475</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6702863.012252055</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896672</v>
+        <v>111896674</v>
       </c>
       <c r="B2" t="n">
-        <v>90187</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2014</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575102.4524061662</v>
+        <v>575252.6125616841</v>
       </c>
       <c r="R2" t="n">
-        <v>6702964.035148131</v>
+        <v>6702873.88263269</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -774,7 +774,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -793,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111891126</v>
+        <v>111896663</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>90658</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,55 +804,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575125.6693508058</v>
+        <v>575023.2051342586</v>
       </c>
       <c r="R3" t="n">
-        <v>6702845.585682714</v>
+        <v>6702900.213655051</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -882,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -892,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -907,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896663</v>
+        <v>111891126</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,41 +916,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575023.2051342586</v>
+        <v>575125.6693508058</v>
       </c>
       <c r="R4" t="n">
-        <v>6702900.213655051</v>
+        <v>6702845.585682714</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -994,7 +993,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1004,7 +1003,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,22 +1018,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111891400</v>
+        <v>111896693</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>90018</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,55 +1042,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575106.7474690104</v>
+        <v>575100.1771260161</v>
       </c>
       <c r="R5" t="n">
-        <v>6702828.414323498</v>
+        <v>6702883.056141537</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1120,7 +1105,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1130,7 +1115,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1145,22 +1130,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896599</v>
+        <v>111896692</v>
       </c>
       <c r="B6" t="n">
-        <v>56543</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,46 +1154,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575065.0695521727</v>
+        <v>575090.343795793</v>
       </c>
       <c r="R6" t="n">
-        <v>6702907.496396012</v>
+        <v>6702785.139498818</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1277,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896673</v>
+        <v>111896672</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>90187</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1289,50 +1266,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>2014</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+          <t>(Scop.:Fr.) Pers.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575152.3038162624</v>
+        <v>575102.4524061662</v>
       </c>
       <c r="R7" t="n">
-        <v>6702800.736142034</v>
+        <v>6702964.035148131</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1402,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896692</v>
+        <v>111896591</v>
       </c>
       <c r="B8" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1414,25 +1379,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1442,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575090.343795793</v>
+        <v>575103.6640899593</v>
       </c>
       <c r="R8" t="n">
-        <v>6702785.139498818</v>
+        <v>6702786.402673531</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1514,10 +1479,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896694</v>
+        <v>111896606</v>
       </c>
       <c r="B9" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1530,21 +1495,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1554,10 +1519,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575097.6139059839</v>
+        <v>575078.5902533898</v>
       </c>
       <c r="R9" t="n">
-        <v>6702959.000007093</v>
+        <v>6702946.762035946</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1626,10 +1591,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896592</v>
+        <v>111896599</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1642,34 +1607,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575109.7436304765</v>
+        <v>575065.0695521727</v>
       </c>
       <c r="R10" t="n">
-        <v>6702755.437760966</v>
+        <v>6702907.496396012</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1738,10 +1711,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896600</v>
+        <v>111896605</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1750,46 +1723,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575119.1479754841</v>
+        <v>575083.5515026724</v>
       </c>
       <c r="R11" t="n">
-        <v>6702802.515895648</v>
+        <v>6702945.877912494</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1858,10 +1823,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896596</v>
+        <v>111896673</v>
       </c>
       <c r="B12" t="n">
-        <v>4711</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1870,38 +1835,50 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100299</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575089.6042638847</v>
+        <v>575152.3038162624</v>
       </c>
       <c r="R12" t="n">
-        <v>6702796.968279703</v>
+        <v>6702800.736142034</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1952,6 +1929,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1970,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896693</v>
+        <v>111896694</v>
       </c>
       <c r="B13" t="n">
-        <v>90018</v>
+        <v>98535</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1986,21 +1964,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1339</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2010,10 +1988,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575100.1771260161</v>
+        <v>575097.6139059839</v>
       </c>
       <c r="R13" t="n">
-        <v>6702883.056141537</v>
+        <v>6702959.000007093</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2082,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896605</v>
+        <v>111890621</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2094,41 +2072,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575083.5515026724</v>
+        <v>575120.7488751278</v>
       </c>
       <c r="R14" t="n">
-        <v>6702945.877912494</v>
+        <v>6702844.496635719</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2157,7 +2136,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2167,7 +2146,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2182,22 +2161,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111890621</v>
+        <v>111896592</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,42 +2185,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575120.7488751278</v>
+        <v>575109.7436304765</v>
       </c>
       <c r="R15" t="n">
-        <v>6702844.496635719</v>
+        <v>6702755.437760966</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2270,7 +2248,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2280,7 +2258,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2295,22 +2273,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896674</v>
+        <v>111896600</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2319,38 +2297,46 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575252.6125616841</v>
+        <v>575119.1479754841</v>
       </c>
       <c r="R16" t="n">
-        <v>6702873.88263269</v>
+        <v>6702802.515895648</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2532,10 +2518,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896591</v>
+        <v>111896596</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>4711</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2544,25 +2530,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>100299</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2572,10 +2558,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575103.6640899593</v>
+        <v>575089.6042638847</v>
       </c>
       <c r="R18" t="n">
-        <v>6702786.402673531</v>
+        <v>6702796.968279703</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2644,10 +2630,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896606</v>
+        <v>111891400</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2656,41 +2642,55 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575078.5902533898</v>
+        <v>575106.7474690104</v>
       </c>
       <c r="R19" t="n">
-        <v>6702946.762035946</v>
+        <v>6702828.414323498</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2744,12 +2744,12 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>

--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896674</v>
+        <v>111896673</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -713,17 +713,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575252.6125616841</v>
+        <v>575152.3038162624</v>
       </c>
       <c r="R2" t="n">
-        <v>6702873.88263269</v>
+        <v>6702800.736142034</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -774,6 +786,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -792,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896663</v>
+        <v>111891126</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,41 +817,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575023.2051342586</v>
+        <v>575125.6693508058</v>
       </c>
       <c r="R3" t="n">
-        <v>6702900.213655051</v>
+        <v>6702845.585682714</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -867,7 +894,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +904,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,19 +919,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111891126</v>
+        <v>111890621</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -937,31 +964,18 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575125.6693508058</v>
+        <v>575120.7488751278</v>
       </c>
       <c r="R4" t="n">
-        <v>6702845.585682714</v>
+        <v>6702844.496635719</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -993,7 +1007,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1003,7 +1017,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1030,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896693</v>
+        <v>111896596</v>
       </c>
       <c r="B5" t="n">
-        <v>90018</v>
+        <v>4711</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,21 +1060,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1339</v>
+        <v>100299</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1070,10 +1084,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575100.1771260161</v>
+        <v>575089.6042638847</v>
       </c>
       <c r="R5" t="n">
-        <v>6702883.056141537</v>
+        <v>6702796.968279703</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1142,10 +1156,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896692</v>
+        <v>111891400</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,41 +1168,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575090.343795793</v>
+        <v>575106.7474690104</v>
       </c>
       <c r="R6" t="n">
-        <v>6702785.139498818</v>
+        <v>6702828.414323498</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1217,7 +1245,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1227,7 +1255,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1242,22 +1270,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896672</v>
+        <v>111896606</v>
       </c>
       <c r="B7" t="n">
-        <v>90187</v>
+        <v>90332</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,25 +1294,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2014</v>
+        <v>4769</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1294,10 +1322,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575102.4524061662</v>
+        <v>575078.5902533898</v>
       </c>
       <c r="R7" t="n">
-        <v>6702964.035148131</v>
+        <v>6702946.762035946</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1348,7 +1376,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1367,10 +1394,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896591</v>
+        <v>111896599</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,34 +1410,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575103.6640899593</v>
+        <v>575065.0695521727</v>
       </c>
       <c r="R8" t="n">
-        <v>6702786.402673531</v>
+        <v>6702907.496396012</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1479,10 +1514,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896606</v>
+        <v>111896693</v>
       </c>
       <c r="B9" t="n">
-        <v>90332</v>
+        <v>90018</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1495,21 +1530,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>1339</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1519,10 +1554,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575078.5902533898</v>
+        <v>575100.1771260161</v>
       </c>
       <c r="R9" t="n">
-        <v>6702946.762035946</v>
+        <v>6702883.056141537</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1591,10 +1626,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896599</v>
+        <v>111896605</v>
       </c>
       <c r="B10" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,46 +1638,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575065.0695521727</v>
+        <v>575083.5515026724</v>
       </c>
       <c r="R10" t="n">
-        <v>6702907.496396012</v>
+        <v>6702945.877912494</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1711,10 +1738,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896605</v>
+        <v>111896600</v>
       </c>
       <c r="B11" t="n">
-        <v>90332</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1723,38 +1750,46 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575083.5515026724</v>
+        <v>575119.1479754841</v>
       </c>
       <c r="R11" t="n">
-        <v>6702945.877912494</v>
+        <v>6702802.515895648</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1823,10 +1858,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896673</v>
+        <v>111896672</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>90187</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1835,50 +1870,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>2014</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+          <t>(Scop.:Fr.) Pers.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575152.3038162624</v>
+        <v>575102.4524061662</v>
       </c>
       <c r="R12" t="n">
-        <v>6702800.736142034</v>
+        <v>6702964.035148131</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1948,10 +1971,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896694</v>
+        <v>111896663</v>
       </c>
       <c r="B13" t="n">
-        <v>98535</v>
+        <v>90658</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1960,25 +1983,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1988,10 +2011,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575097.6139059839</v>
+        <v>575023.2051342586</v>
       </c>
       <c r="R13" t="n">
-        <v>6702959.000007093</v>
+        <v>6702900.213655051</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2060,10 +2083,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111890621</v>
+        <v>111896692</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2072,42 +2095,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575120.7488751278</v>
+        <v>575090.343795793</v>
       </c>
       <c r="R14" t="n">
-        <v>6702844.496635719</v>
+        <v>6702785.139498818</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2136,7 +2158,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2146,7 +2168,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2161,22 +2183,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896592</v>
+        <v>111892438</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>55395</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2185,41 +2207,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>208257</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575109.7436304765</v>
+        <v>575076.7844513921</v>
       </c>
       <c r="R15" t="n">
-        <v>6702755.437760966</v>
+        <v>6702914.648038276</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2248,7 +2271,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2258,7 +2281,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2273,22 +2296,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896600</v>
+        <v>111896591</v>
       </c>
       <c r="B16" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2301,42 +2324,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575119.1479754841</v>
+        <v>575103.6640899593</v>
       </c>
       <c r="R16" t="n">
-        <v>6702802.515895648</v>
+        <v>6702786.402673531</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2405,10 +2420,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111892438</v>
+        <v>111896694</v>
       </c>
       <c r="B17" t="n">
-        <v>55395</v>
+        <v>98535</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2421,38 +2436,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>208257</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575076.7844513921</v>
+        <v>575097.6139059839</v>
       </c>
       <c r="R17" t="n">
-        <v>6702914.648038276</v>
+        <v>6702959.000007093</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2481,7 +2495,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2491,7 +2505,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2506,22 +2520,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896596</v>
+        <v>111896674</v>
       </c>
       <c r="B18" t="n">
-        <v>4711</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2530,25 +2544,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100299</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2558,10 +2572,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575089.6042638847</v>
+        <v>575252.6125616841</v>
       </c>
       <c r="R18" t="n">
-        <v>6702796.968279703</v>
+        <v>6702873.88263269</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2630,10 +2644,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111891400</v>
+        <v>111896592</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2642,55 +2656,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575106.7474690104</v>
+        <v>575109.7436304765</v>
       </c>
       <c r="R19" t="n">
-        <v>6702828.414323498</v>
+        <v>6702755.437760966</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2744,12 +2744,12 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111891613</v>
+        <v>111890113</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>89369</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2889,28 +2889,24 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>5447</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2918,10 +2914,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575147.8131198394</v>
+        <v>575180.6699579475</v>
       </c>
       <c r="R21" t="n">
-        <v>6702778.928742766</v>
+        <v>6702863.012252055</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2953,7 +2949,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2963,7 +2959,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2990,10 +2986,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111890113</v>
+        <v>111891613</v>
       </c>
       <c r="B22" t="n">
-        <v>89369</v>
+        <v>98535</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3006,24 +3002,28 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575180.6699579475</v>
+        <v>575147.8131198394</v>
       </c>
       <c r="R22" t="n">
-        <v>6702863.012252055</v>
+        <v>6702778.928742766</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896673</v>
+        <v>111891400</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -723,22 +723,24 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575152.3038162624</v>
+        <v>575106.7474690104</v>
       </c>
       <c r="R2" t="n">
-        <v>6702800.736142034</v>
+        <v>6702828.414323498</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -767,7 +769,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -777,7 +779,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -786,29 +788,28 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111891126</v>
+        <v>111896599</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,55 +818,49 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575125.6693508058</v>
+        <v>575065.0695521727</v>
       </c>
       <c r="R3" t="n">
-        <v>6702845.585682714</v>
+        <v>6702907.496396012</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -894,7 +889,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -904,7 +899,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -919,19 +914,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111890621</v>
+        <v>111896673</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -964,21 +959,32 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575120.7488751278</v>
+        <v>575152.3038162624</v>
       </c>
       <c r="R4" t="n">
-        <v>6702844.496635719</v>
+        <v>6702800.736142034</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1007,7 +1013,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1017,7 +1023,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,28 +1032,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896596</v>
+        <v>111896692</v>
       </c>
       <c r="B5" t="n">
-        <v>4711</v>
+        <v>5113</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,21 +1067,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100299</v>
+        <v>100526</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1084,10 +1091,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575089.6042638847</v>
+        <v>575090.343795793</v>
       </c>
       <c r="R5" t="n">
-        <v>6702796.968279703</v>
+        <v>6702785.139498818</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1156,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891400</v>
+        <v>111896600</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1168,55 +1175,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575106.7474690104</v>
+        <v>575119.1479754841</v>
       </c>
       <c r="R6" t="n">
-        <v>6702828.414323498</v>
+        <v>6702802.515895648</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1245,7 +1246,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1255,7 +1256,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1270,22 +1271,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896606</v>
+        <v>111896596</v>
       </c>
       <c r="B7" t="n">
-        <v>90332</v>
+        <v>4711</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1298,21 +1299,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4769</v>
+        <v>100299</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1322,10 +1323,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575078.5902533898</v>
+        <v>575089.6042638847</v>
       </c>
       <c r="R7" t="n">
-        <v>6702946.762035946</v>
+        <v>6702796.968279703</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1394,10 +1395,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896599</v>
+        <v>111896672</v>
       </c>
       <c r="B8" t="n">
-        <v>56543</v>
+        <v>90187</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1410,42 +1411,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103021</v>
+        <v>2014</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575065.0695521727</v>
+        <v>575102.4524061662</v>
       </c>
       <c r="R8" t="n">
-        <v>6702907.496396012</v>
+        <v>6702964.035148131</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1496,6 +1489,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1514,10 +1508,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896693</v>
+        <v>111896663</v>
       </c>
       <c r="B9" t="n">
-        <v>90018</v>
+        <v>90658</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1526,25 +1520,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1339</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1554,10 +1548,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575100.1771260161</v>
+        <v>575023.2051342586</v>
       </c>
       <c r="R9" t="n">
-        <v>6702883.056141537</v>
+        <v>6702900.213655051</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1626,10 +1620,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896605</v>
+        <v>111896591</v>
       </c>
       <c r="B10" t="n">
-        <v>90332</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1638,25 +1632,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1666,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575083.5515026724</v>
+        <v>575103.6640899593</v>
       </c>
       <c r="R10" t="n">
-        <v>6702945.877912494</v>
+        <v>6702786.402673531</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1738,10 +1732,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896600</v>
+        <v>111896693</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>90018</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1750,46 +1744,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>1339</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575119.1479754841</v>
+        <v>575100.1771260161</v>
       </c>
       <c r="R11" t="n">
-        <v>6702802.515895648</v>
+        <v>6702883.056141537</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1858,10 +1844,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896672</v>
+        <v>111890621</v>
       </c>
       <c r="B12" t="n">
-        <v>90187</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1870,41 +1856,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2014</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575102.4524061662</v>
+        <v>575120.7488751278</v>
       </c>
       <c r="R12" t="n">
-        <v>6702964.035148131</v>
+        <v>6702844.496635719</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1933,7 +1920,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1943,7 +1930,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1952,29 +1939,28 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896663</v>
+        <v>111896592</v>
       </c>
       <c r="B13" t="n">
-        <v>90658</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1987,21 +1973,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2011,10 +1997,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575023.2051342586</v>
+        <v>575109.7436304765</v>
       </c>
       <c r="R13" t="n">
-        <v>6702900.213655051</v>
+        <v>6702755.437760966</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2083,10 +2069,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896692</v>
+        <v>111896605</v>
       </c>
       <c r="B14" t="n">
-        <v>5113</v>
+        <v>90332</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2099,21 +2085,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100526</v>
+        <v>4769</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2123,10 +2109,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575090.343795793</v>
+        <v>575083.5515026724</v>
       </c>
       <c r="R14" t="n">
-        <v>6702785.139498818</v>
+        <v>6702945.877912494</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2195,10 +2181,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111892438</v>
+        <v>111896694</v>
       </c>
       <c r="B15" t="n">
-        <v>55395</v>
+        <v>98535</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2211,38 +2197,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>208257</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575076.7844513921</v>
+        <v>575097.6139059839</v>
       </c>
       <c r="R15" t="n">
-        <v>6702914.648038276</v>
+        <v>6702959.000007093</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2271,7 +2256,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2281,7 +2266,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2296,22 +2281,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896591</v>
+        <v>111892438</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>55395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2320,41 +2305,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>208257</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575103.6640899593</v>
+        <v>575076.7844513921</v>
       </c>
       <c r="R16" t="n">
-        <v>6702786.402673531</v>
+        <v>6702914.648038276</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2383,7 +2369,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2393,7 +2379,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2408,22 +2394,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896694</v>
+        <v>111896606</v>
       </c>
       <c r="B17" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2436,21 +2422,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2460,10 +2446,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575097.6139059839</v>
+        <v>575078.5902533898</v>
       </c>
       <c r="R17" t="n">
-        <v>6702959.000007093</v>
+        <v>6702946.762035946</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2644,10 +2630,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896592</v>
+        <v>111891126</v>
       </c>
       <c r="B19" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2656,41 +2642,55 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575109.7436304765</v>
+        <v>575125.6693508058</v>
       </c>
       <c r="R19" t="n">
-        <v>6702755.437760966</v>
+        <v>6702845.585682714</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2744,12 +2744,12 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>

--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -926,10 +926,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896673</v>
+        <v>111896692</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,50 +938,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575152.3038162624</v>
+        <v>575090.343795793</v>
       </c>
       <c r="R4" t="n">
-        <v>6702800.736142034</v>
+        <v>6702785.139498818</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1032,7 +1020,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1051,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896692</v>
+        <v>111896673</v>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,38 +1050,50 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575090.343795793</v>
+        <v>575152.3038162624</v>
       </c>
       <c r="R5" t="n">
-        <v>6702785.139498818</v>
+        <v>6702800.736142034</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1145,6 +1144,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111891400</v>
+        <v>111896599</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,55 +692,49 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575106.7474690104</v>
+        <v>575065.0695521727</v>
       </c>
       <c r="R2" t="n">
-        <v>6702828.414323498</v>
+        <v>6702907.496396012</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -769,7 +763,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -779,7 +773,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,22 +788,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896599</v>
+        <v>111896673</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,35 +812,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -854,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575065.0695521727</v>
+        <v>575152.3038162624</v>
       </c>
       <c r="R3" t="n">
-        <v>6702907.496396012</v>
+        <v>6702800.736142034</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -908,6 +906,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -926,10 +925,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896692</v>
+        <v>111896600</v>
       </c>
       <c r="B4" t="n">
-        <v>5113</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,38 +937,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575090.343795793</v>
+        <v>575119.1479754841</v>
       </c>
       <c r="R4" t="n">
-        <v>6702785.139498818</v>
+        <v>6702802.515895648</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1038,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896673</v>
+        <v>111892438</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>55395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,53 +1057,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>208257</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575152.3038162624</v>
+        <v>575076.7844513921</v>
       </c>
       <c r="R5" t="n">
-        <v>6702800.736142034</v>
+        <v>6702914.648038276</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1125,7 +1121,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1135,7 +1131,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1144,29 +1140,28 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896600</v>
+        <v>111891400</v>
       </c>
       <c r="B6" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,49 +1170,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575119.1479754841</v>
+        <v>575106.7474690104</v>
       </c>
       <c r="R6" t="n">
-        <v>6702802.515895648</v>
+        <v>6702828.414323498</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1246,7 +1247,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1256,7 +1257,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1271,22 +1272,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896596</v>
+        <v>111891126</v>
       </c>
       <c r="B7" t="n">
-        <v>4711</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1295,41 +1296,55 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100299</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575089.6042638847</v>
+        <v>575125.6693508058</v>
       </c>
       <c r="R7" t="n">
-        <v>6702796.968279703</v>
+        <v>6702845.585682714</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,7 +1373,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1368,7 +1383,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1383,22 +1398,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896672</v>
+        <v>111896591</v>
       </c>
       <c r="B8" t="n">
-        <v>90187</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1411,21 +1426,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2014</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1435,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575102.4524061662</v>
+        <v>575103.6640899593</v>
       </c>
       <c r="R8" t="n">
-        <v>6702964.035148131</v>
+        <v>6702786.402673531</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1489,7 +1504,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1508,10 +1522,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896663</v>
+        <v>111896606</v>
       </c>
       <c r="B9" t="n">
-        <v>90658</v>
+        <v>90332</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1520,25 +1534,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1548,10 +1562,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575023.2051342586</v>
+        <v>575078.5902533898</v>
       </c>
       <c r="R9" t="n">
-        <v>6702900.213655051</v>
+        <v>6702946.762035946</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1620,10 +1634,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896591</v>
+        <v>111896663</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1636,21 +1650,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1660,10 +1674,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575103.6640899593</v>
+        <v>575023.2051342586</v>
       </c>
       <c r="R10" t="n">
-        <v>6702786.402673531</v>
+        <v>6702900.213655051</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1732,10 +1746,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896693</v>
+        <v>111896674</v>
       </c>
       <c r="B11" t="n">
-        <v>90018</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1744,25 +1758,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1772,10 +1786,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575100.1771260161</v>
+        <v>575252.6125616841</v>
       </c>
       <c r="R11" t="n">
-        <v>6702883.056141537</v>
+        <v>6702873.88263269</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1844,10 +1858,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111890621</v>
+        <v>111896592</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1856,42 +1870,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575120.7488751278</v>
+        <v>575109.7436304765</v>
       </c>
       <c r="R12" t="n">
-        <v>6702844.496635719</v>
+        <v>6702755.437760966</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1920,7 +1933,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1930,7 +1943,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1945,22 +1958,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896592</v>
+        <v>111896692</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1969,25 +1982,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1997,10 +2010,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575109.7436304765</v>
+        <v>575090.343795793</v>
       </c>
       <c r="R13" t="n">
-        <v>6702755.437760966</v>
+        <v>6702785.139498818</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2069,10 +2082,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896605</v>
+        <v>111896672</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>90187</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2081,25 +2094,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>2014</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2109,10 +2122,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575083.5515026724</v>
+        <v>575102.4524061662</v>
       </c>
       <c r="R14" t="n">
-        <v>6702945.877912494</v>
+        <v>6702964.035148131</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2163,6 +2176,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2181,10 +2195,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896694</v>
+        <v>111896596</v>
       </c>
       <c r="B15" t="n">
-        <v>98535</v>
+        <v>4711</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2197,21 +2211,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>100299</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2221,10 +2235,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575097.6139059839</v>
+        <v>575089.6042638847</v>
       </c>
       <c r="R15" t="n">
-        <v>6702959.000007093</v>
+        <v>6702796.968279703</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2293,10 +2307,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111892438</v>
+        <v>111896693</v>
       </c>
       <c r="B16" t="n">
-        <v>55395</v>
+        <v>90018</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2309,38 +2323,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>208257</v>
+        <v>1339</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575076.7844513921</v>
+        <v>575100.1771260161</v>
       </c>
       <c r="R16" t="n">
-        <v>6702914.648038276</v>
+        <v>6702883.056141537</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2369,7 +2382,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2379,7 +2392,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2394,22 +2407,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896606</v>
+        <v>111890621</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2418,41 +2431,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575078.5902533898</v>
+        <v>575120.7488751278</v>
       </c>
       <c r="R17" t="n">
-        <v>6702946.762035946</v>
+        <v>6702844.496635719</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2481,7 +2495,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2491,7 +2505,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2506,22 +2520,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896674</v>
+        <v>111896694</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2530,25 +2544,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2558,10 +2572,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575252.6125616841</v>
+        <v>575097.6139059839</v>
       </c>
       <c r="R18" t="n">
-        <v>6702873.88263269</v>
+        <v>6702959.000007093</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2630,10 +2644,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111891126</v>
+        <v>111896605</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2642,55 +2656,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575125.6693508058</v>
+        <v>575083.5515026724</v>
       </c>
       <c r="R19" t="n">
-        <v>6702845.585682714</v>
+        <v>6702945.877912494</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2744,19 +2744,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111890696</v>
+        <v>111890685</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2789,11 +2789,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>

--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111892438</v>
+        <v>111891400</v>
       </c>
       <c r="B5" t="n">
-        <v>55395</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,39 +1057,52 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>208257</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575076.7844513921</v>
+        <v>575106.7474690104</v>
       </c>
       <c r="R5" t="n">
-        <v>6702914.648038276</v>
+        <v>6702828.414323498</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1121,7 +1134,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1131,7 +1144,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1158,7 +1171,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891400</v>
+        <v>111891126</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1193,7 +1206,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1212,10 +1225,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575106.7474690104</v>
+        <v>575125.6693508058</v>
       </c>
       <c r="R6" t="n">
-        <v>6702828.414323498</v>
+        <v>6702845.585682714</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1247,7 +1260,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1257,7 +1270,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1284,10 +1297,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111891126</v>
+        <v>111892438</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>55395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1296,52 +1309,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>208257</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575125.6693508058</v>
+        <v>575076.7844513921</v>
       </c>
       <c r="R7" t="n">
-        <v>6702845.585682714</v>
+        <v>6702914.648038276</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896599</v>
+        <v>111896600</v>
       </c>
       <c r="B2" t="n">
         <v>56543</v>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575065.0695521727</v>
+        <v>575119</v>
       </c>
       <c r="R2" t="n">
-        <v>6702907.496396012</v>
+        <v>6702803</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -761,19 +761,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -800,10 +790,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896673</v>
+        <v>111896596</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>4711</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,50 +802,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>100299</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>(Kraatz, 1881)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575152.3038162624</v>
+        <v>575090</v>
       </c>
       <c r="R3" t="n">
-        <v>6702800.736142034</v>
+        <v>6702797</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -885,28 +863,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -925,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896600</v>
+        <v>111896674</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,46 +904,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575119.1479754841</v>
+        <v>575253</v>
       </c>
       <c r="R4" t="n">
-        <v>6702802.515895648</v>
+        <v>6702874</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1006,19 +965,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1045,7 +994,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111891400</v>
+        <v>111896673</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1080,7 +1029,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1088,24 +1037,22 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575106.7474690104</v>
+        <v>575152</v>
       </c>
       <c r="R5" t="n">
-        <v>6702828.414323498</v>
+        <v>6702801</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1132,49 +1079,40 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>14:38</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>14:38</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891126</v>
+        <v>111896672</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>90187</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1183,55 +1121,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>2014</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Pers.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575125.6693508058</v>
+        <v>575102</v>
       </c>
       <c r="R6" t="n">
-        <v>6702845.585682714</v>
+        <v>6702964</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1258,49 +1182,40 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>14:33</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>14:33</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111892438</v>
+        <v>111896693</v>
       </c>
       <c r="B7" t="n">
-        <v>55395</v>
+        <v>90018</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1313,38 +1228,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>208257</v>
+        <v>1339</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575076.7844513921</v>
+        <v>575100</v>
       </c>
       <c r="R7" t="n">
-        <v>6702914.648038276</v>
+        <v>6702883</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1371,19 +1285,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>15:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1398,22 +1302,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896591</v>
+        <v>111892438</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>55395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,41 +1326,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>208257</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575103.6640899593</v>
+        <v>575077</v>
       </c>
       <c r="R8" t="n">
-        <v>6702786.402673531</v>
+        <v>6702915</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1485,7 +1390,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1495,7 +1400,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1510,22 +1415,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896606</v>
+        <v>111896694</v>
       </c>
       <c r="B9" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1538,21 +1443,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1562,10 +1467,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575078.5902533898</v>
+        <v>575098</v>
       </c>
       <c r="R9" t="n">
-        <v>6702946.762035946</v>
+        <v>6702959</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1595,19 +1500,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1634,10 +1529,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896663</v>
+        <v>111891400</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1646,41 +1541,55 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575023.2051342586</v>
+        <v>575107</v>
       </c>
       <c r="R10" t="n">
-        <v>6702900.213655051</v>
+        <v>6702828</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1709,7 +1618,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1719,7 +1628,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1734,22 +1643,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896674</v>
+        <v>111896592</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1758,25 +1667,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1786,10 +1695,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575252.6125616841</v>
+        <v>575110</v>
       </c>
       <c r="R11" t="n">
-        <v>6702873.88263269</v>
+        <v>6702755</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1819,19 +1728,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1858,10 +1757,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896592</v>
+        <v>111896692</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1870,25 +1769,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1898,10 +1797,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575109.7436304765</v>
+        <v>575090</v>
       </c>
       <c r="R12" t="n">
-        <v>6702755.437760966</v>
+        <v>6702785</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1931,19 +1830,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1970,10 +1859,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896692</v>
+        <v>111896599</v>
       </c>
       <c r="B13" t="n">
-        <v>5113</v>
+        <v>56543</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1982,38 +1871,46 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575090.343795793</v>
+        <v>575065</v>
       </c>
       <c r="R13" t="n">
-        <v>6702785.139498818</v>
+        <v>6702907</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2043,19 +1940,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2082,10 +1969,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896672</v>
+        <v>111891126</v>
       </c>
       <c r="B14" t="n">
-        <v>90187</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2094,41 +1981,55 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2014</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575102.4524061662</v>
+        <v>575126</v>
       </c>
       <c r="R14" t="n">
-        <v>6702964.035148131</v>
+        <v>6702846</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2157,7 +2058,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2167,7 +2068,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2176,29 +2077,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896596</v>
+        <v>111890621</v>
       </c>
       <c r="B15" t="n">
-        <v>4711</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2207,41 +2107,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100299</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575089.6042638847</v>
+        <v>575121</v>
       </c>
       <c r="R15" t="n">
-        <v>6702796.968279703</v>
+        <v>6702844</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2270,7 +2171,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2280,7 +2181,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2295,22 +2196,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896693</v>
+        <v>111896591</v>
       </c>
       <c r="B16" t="n">
-        <v>90018</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2319,25 +2220,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1339</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2347,10 +2248,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575100.1771260161</v>
+        <v>575104</v>
       </c>
       <c r="R16" t="n">
-        <v>6702883.056141537</v>
+        <v>6702786</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2380,19 +2281,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2419,10 +2310,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111890621</v>
+        <v>111896605</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2431,42 +2322,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575120.7488751278</v>
+        <v>575084</v>
       </c>
       <c r="R17" t="n">
-        <v>6702844.496635719</v>
+        <v>6702946</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2493,19 +2383,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>14:15</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>14:15</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2520,22 +2400,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896694</v>
+        <v>111896606</v>
       </c>
       <c r="B18" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2548,21 +2428,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2572,10 +2452,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575097.6139059839</v>
+        <v>575079</v>
       </c>
       <c r="R18" t="n">
-        <v>6702959.000007093</v>
+        <v>6702947</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2605,19 +2485,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2644,10 +2514,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896605</v>
+        <v>111896663</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>90658</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2656,25 +2526,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>4361</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2684,10 +2554,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575083.5515026724</v>
+        <v>575023</v>
       </c>
       <c r="R19" t="n">
-        <v>6702945.877912494</v>
+        <v>6702900</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2717,19 +2587,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2756,7 +2616,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111890685</v>
+        <v>111890696</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2789,7 +2649,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2797,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575147.8131198394</v>
+        <v>575148</v>
       </c>
       <c r="R20" t="n">
-        <v>6702778.928742766</v>
+        <v>6702779</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2869,10 +2733,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111890113</v>
+        <v>111891613</v>
       </c>
       <c r="B21" t="n">
-        <v>89369</v>
+        <v>98535</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2885,24 +2749,28 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2910,10 +2778,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575180.6699579475</v>
+        <v>575148</v>
       </c>
       <c r="R21" t="n">
-        <v>6702863.012252055</v>
+        <v>6702779</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2945,7 +2813,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2955,7 +2823,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2982,10 +2850,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111891613</v>
+        <v>111890113</v>
       </c>
       <c r="B22" t="n">
-        <v>98535</v>
+        <v>89369</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2998,28 +2866,24 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3027,10 +2891,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575147.8131198394</v>
+        <v>575181</v>
       </c>
       <c r="R22" t="n">
-        <v>6702778.928742766</v>
+        <v>6702863</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3062,7 +2926,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3072,7 +2936,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896600</v>
+        <v>111896693</v>
       </c>
       <c r="B2" t="n">
-        <v>56543</v>
+        <v>90152</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,46 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103021</v>
+        <v>1339</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575119</v>
+        <v>575100</v>
       </c>
       <c r="R2" t="n">
-        <v>6702803</v>
+        <v>6702883</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -790,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896596</v>
+        <v>111896591</v>
       </c>
       <c r="B3" t="n">
-        <v>4711</v>
+        <v>89539</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100299</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -830,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575090</v>
+        <v>575104</v>
       </c>
       <c r="R3" t="n">
-        <v>6702797</v>
+        <v>6702786</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -892,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896674</v>
+        <v>111896592</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -904,25 +896,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -932,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575253</v>
+        <v>575110</v>
       </c>
       <c r="R4" t="n">
-        <v>6702874</v>
+        <v>6702755</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -994,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896673</v>
+        <v>111896596</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>4711</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1006,50 +998,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>100299</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>(Kraatz, 1881)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575152</v>
+        <v>575090</v>
       </c>
       <c r="R5" t="n">
-        <v>6702801</v>
+        <v>6702797</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1090,7 +1070,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1109,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896672</v>
+        <v>111891126</v>
       </c>
       <c r="B6" t="n">
-        <v>90187</v>
+        <v>96720</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1121,41 +1100,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2014</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575102</v>
+        <v>575126</v>
       </c>
       <c r="R6" t="n">
-        <v>6702964</v>
+        <v>6702846</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1182,40 +1175,49 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896693</v>
+        <v>111896606</v>
       </c>
       <c r="B7" t="n">
-        <v>90018</v>
+        <v>90466</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1228,21 +1230,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1339</v>
+        <v>4769</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1252,10 +1254,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575100</v>
+        <v>575079</v>
       </c>
       <c r="R7" t="n">
-        <v>6702883</v>
+        <v>6702947</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1314,10 +1316,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111892438</v>
+        <v>111890621</v>
       </c>
       <c r="B8" t="n">
-        <v>55395</v>
+        <v>96720</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1326,25 +1328,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>208257</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1355,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575077</v>
+        <v>575121</v>
       </c>
       <c r="R8" t="n">
-        <v>6702915</v>
+        <v>6702844</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1390,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1400,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1427,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896694</v>
+        <v>111891400</v>
       </c>
       <c r="B9" t="n">
-        <v>98535</v>
+        <v>96720</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1439,41 +1441,55 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575098</v>
+        <v>575107</v>
       </c>
       <c r="R9" t="n">
-        <v>6702959</v>
+        <v>6702828</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1500,9 +1516,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>14:38</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1517,22 +1543,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111891400</v>
+        <v>111896663</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>90792</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1541,55 +1567,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575107</v>
+        <v>575023</v>
       </c>
       <c r="R10" t="n">
-        <v>6702828</v>
+        <v>6702900</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1616,19 +1628,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>14:38</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>14:38</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1643,22 +1645,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896592</v>
+        <v>111892438</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>55428</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1667,41 +1669,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>208257</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575110</v>
+        <v>575077</v>
       </c>
       <c r="R11" t="n">
-        <v>6702755</v>
+        <v>6702915</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1728,9 +1731,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1745,12 +1758,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
@@ -1859,10 +1872,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896599</v>
+        <v>111896674</v>
       </c>
       <c r="B13" t="n">
-        <v>56543</v>
+        <v>96720</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1871,46 +1884,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575065</v>
+        <v>575253</v>
       </c>
       <c r="R13" t="n">
-        <v>6702907</v>
+        <v>6702874</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1969,10 +1974,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111891126</v>
+        <v>111896694</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>98961</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1981,55 +1986,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575126</v>
+        <v>575098</v>
       </c>
       <c r="R14" t="n">
-        <v>6702846</v>
+        <v>6702959</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2056,19 +2047,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>14:33</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>14:33</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2083,22 +2064,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111890621</v>
+        <v>111896672</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>90321</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2107,42 +2088,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>2014</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575121</v>
+        <v>575102</v>
       </c>
       <c r="R15" t="n">
-        <v>6702844</v>
+        <v>6702964</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2169,49 +2149,40 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>14:15</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>14:15</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896591</v>
+        <v>111896605</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>90466</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2220,25 +2191,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2248,10 +2219,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575104</v>
+        <v>575084</v>
       </c>
       <c r="R16" t="n">
-        <v>6702786</v>
+        <v>6702946</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2310,10 +2281,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896605</v>
+        <v>111896600</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>56575</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2322,38 +2293,46 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575084</v>
+        <v>575119</v>
       </c>
       <c r="R17" t="n">
-        <v>6702946</v>
+        <v>6702803</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2412,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896606</v>
+        <v>111896599</v>
       </c>
       <c r="B18" t="n">
-        <v>90332</v>
+        <v>56575</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2424,38 +2403,46 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575079</v>
+        <v>575065</v>
       </c>
       <c r="R18" t="n">
-        <v>6702947</v>
+        <v>6702907</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2514,10 +2501,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896663</v>
+        <v>111896673</v>
       </c>
       <c r="B19" t="n">
-        <v>90658</v>
+        <v>96720</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2526,38 +2513,50 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575023</v>
+        <v>575152</v>
       </c>
       <c r="R19" t="n">
-        <v>6702900</v>
+        <v>6702801</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2598,6 +2597,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111890696</v>
+        <v>111891613</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>98961</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2628,30 +2628,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111891613</v>
+        <v>111890113</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>89503</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2749,28 +2749,24 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>5447</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2778,10 +2774,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575148</v>
+        <v>575181</v>
       </c>
       <c r="R21" t="n">
-        <v>6702779</v>
+        <v>6702863</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2813,7 +2809,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2823,7 +2819,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2850,10 +2846,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111890113</v>
+        <v>111890685</v>
       </c>
       <c r="B22" t="n">
-        <v>89369</v>
+        <v>96720</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2862,25 +2858,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2891,10 +2887,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575181</v>
+        <v>575148</v>
       </c>
       <c r="R22" t="n">
-        <v>6702863</v>
+        <v>6702779</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2926,7 +2922,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2936,7 +2932,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 13746-2023.xlsx
+++ b/artfynd/A 13746-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896693</v>
+        <v>111891126</v>
       </c>
       <c r="B2" t="n">
-        <v>90152</v>
+        <v>96735</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,55 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575100</v>
+        <v>575126</v>
       </c>
       <c r="R2" t="n">
-        <v>6702883</v>
+        <v>6702846</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -753,9 +767,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,12 +794,12 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -785,7 +809,7 @@
         <v>111896591</v>
       </c>
       <c r="B3" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -884,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896592</v>
+        <v>111890621</v>
       </c>
       <c r="B4" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -896,41 +920,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575110</v>
+        <v>575121</v>
       </c>
       <c r="R4" t="n">
-        <v>6702755</v>
+        <v>6702844</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -957,9 +982,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -974,22 +1009,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896596</v>
+        <v>111896592</v>
       </c>
       <c r="B5" t="n">
-        <v>4711</v>
+        <v>89553</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -998,25 +1033,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100299</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575090</v>
+        <v>575110</v>
       </c>
       <c r="R5" t="n">
-        <v>6702797</v>
+        <v>6702755</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1088,10 +1123,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891126</v>
+        <v>111896663</v>
       </c>
       <c r="B6" t="n">
-        <v>96720</v>
+        <v>90806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1100,55 +1135,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575126</v>
+        <v>575023</v>
       </c>
       <c r="R6" t="n">
-        <v>6702846</v>
+        <v>6702900</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1175,19 +1196,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>14:33</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>14:33</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1202,12 +1213,12 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -1217,7 +1228,7 @@
         <v>111896606</v>
       </c>
       <c r="B7" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1316,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111890621</v>
+        <v>111896694</v>
       </c>
       <c r="B8" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1328,42 +1339,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575121</v>
+        <v>575098</v>
       </c>
       <c r="R8" t="n">
-        <v>6702844</v>
+        <v>6702959</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1390,19 +1400,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>14:15</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>14:15</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1417,22 +1417,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111891400</v>
+        <v>111896693</v>
       </c>
       <c r="B9" t="n">
-        <v>96720</v>
+        <v>90166</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1441,55 +1441,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575107</v>
+        <v>575100</v>
       </c>
       <c r="R9" t="n">
-        <v>6702828</v>
+        <v>6702883</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1516,19 +1502,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>14:38</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>14:38</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1543,22 +1519,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896663</v>
+        <v>111896596</v>
       </c>
       <c r="B10" t="n">
-        <v>90792</v>
+        <v>4711</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1567,25 +1543,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>100299</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1595,10 +1571,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575023</v>
+        <v>575090</v>
       </c>
       <c r="R10" t="n">
-        <v>6702900</v>
+        <v>6702797</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1657,10 +1633,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111892438</v>
+        <v>111896673</v>
       </c>
       <c r="B11" t="n">
-        <v>55428</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1669,42 +1645,53 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>208257</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575077</v>
+        <v>575152</v>
       </c>
       <c r="R11" t="n">
-        <v>6702915</v>
+        <v>6702801</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1731,49 +1718,40 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896692</v>
+        <v>111896600</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>56575</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1782,38 +1760,46 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575090</v>
+        <v>575119</v>
       </c>
       <c r="R12" t="n">
-        <v>6702785</v>
+        <v>6702803</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1872,10 +1858,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896674</v>
+        <v>111891400</v>
       </c>
       <c r="B13" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1905,20 +1891,34 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575253</v>
+        <v>575107</v>
       </c>
       <c r="R13" t="n">
-        <v>6702874</v>
+        <v>6702828</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1945,9 +1945,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>14:38</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1962,22 +1972,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896694</v>
+        <v>111896672</v>
       </c>
       <c r="B14" t="n">
-        <v>98961</v>
+        <v>90335</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1986,25 +1996,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>2014</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2014,10 +2024,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575098</v>
+        <v>575102</v>
       </c>
       <c r="R14" t="n">
-        <v>6702959</v>
+        <v>6702964</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2058,6 +2068,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2076,10 +2087,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896672</v>
+        <v>111896605</v>
       </c>
       <c r="B15" t="n">
-        <v>90321</v>
+        <v>90480</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2088,25 +2099,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2014</v>
+        <v>4769</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2116,10 +2127,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575102</v>
+        <v>575084</v>
       </c>
       <c r="R15" t="n">
-        <v>6702964</v>
+        <v>6702946</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2160,7 +2171,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2179,10 +2189,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896605</v>
+        <v>111896692</v>
       </c>
       <c r="B16" t="n">
-        <v>90466</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2195,21 +2205,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4769</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2219,10 +2229,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575084</v>
+        <v>575090</v>
       </c>
       <c r="R16" t="n">
-        <v>6702946</v>
+        <v>6702785</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2281,7 +2291,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896600</v>
+        <v>111896599</v>
       </c>
       <c r="B17" t="n">
         <v>56575</v>
@@ -2329,10 +2339,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575119</v>
+        <v>575065</v>
       </c>
       <c r="R17" t="n">
-        <v>6702803</v>
+        <v>6702907</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2391,10 +2401,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896599</v>
+        <v>111896674</v>
       </c>
       <c r="B18" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2403,46 +2413,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575065</v>
+        <v>575253</v>
       </c>
       <c r="R18" t="n">
-        <v>6702907</v>
+        <v>6702874</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2501,10 +2503,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896673</v>
+        <v>111892438</v>
       </c>
       <c r="B19" t="n">
-        <v>96720</v>
+        <v>55428</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2513,53 +2515,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>208257</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575152</v>
+        <v>575077</v>
       </c>
       <c r="R19" t="n">
-        <v>6702801</v>
+        <v>6702915</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2586,40 +2577,49 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111891613</v>
+        <v>111890685</v>
       </c>
       <c r="B20" t="n">
-        <v>98961</v>
+        <v>96735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2628,32 +2628,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2736,7 +2732,7 @@
         <v>111890113</v>
       </c>
       <c r="B21" t="n">
-        <v>89503</v>
+        <v>89517</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,10 +2842,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111890685</v>
+        <v>111891613</v>
       </c>
       <c r="B22" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2858,28 +2854,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
